--- a/Framework/Test data/testdata.xlsx
+++ b/Framework/Test data/testdata.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u6044355\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3828"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17892" windowHeight="1908"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +25,7 @@
     <t>anitya93abhilash@yahoo.in</t>
   </si>
   <si>
-    <t>I&lt;3bapabou</t>
+    <t>Ilovebapabou</t>
   </si>
 </sst>
 </file>
@@ -395,7 +391,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
